--- a/Mapping_Spreadsheets/06_Code_Tables.xlsx
+++ b/Mapping_Spreadsheets/06_Code_Tables.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>Crash Driver Report</t>
   </si>
@@ -79,6 +79,9 @@
     <t>nc:PersonType</t>
   </si>
   <si>
+    <t>element</t>
+  </si>
+  <si>
     <t>A human being.</t>
   </si>
   <si>
@@ -256,111 +259,108 @@
     <t>j:CrashPersonType</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
     <t>A person involved in a traffic accident.</t>
   </si>
   <si>
     <t>j:Crash/j:CrashPerson</t>
   </si>
   <si>
-    <t>nc:RoleOfPerson</t>
+    <t>j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>nc:InjuryType</t>
+  </si>
+  <si>
+    <t>An injury received by a person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>Injury Description</t>
+  </si>
+  <si>
+    <t>A description of an injury.</t>
+  </si>
+  <si>
+    <t>nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:TextType</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:InjurySeverityAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a severity of an injury received by a person involved into a Traffic Accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]</t>
+  </si>
+  <si>
+    <t>Severity Code</t>
+  </si>
+  <si>
+    <t>A code for how severe an injury was.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>aamva_d20:AccidentSeverityCodeType</t>
+  </si>
+  <si>
+    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]/j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>Through Window</t>
+  </si>
+  <si>
+    <t>Whether a person was flung through a window by a crash.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Injury Privacy Code</t>
+  </si>
+  <si>
+    <t>A code for whether and how the information about an injury was private.</t>
+  </si>
+  <si>
+    <t>Crash Location Coordinates</t>
+  </si>
+  <si>
+    <t>Latitude and longitude of a location.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociationType</t>
+  </si>
+  <si>
+    <t>An association between a person and a charge issued to that person.</t>
+  </si>
+  <si>
+    <t>0..1</t>
   </si>
   <si>
     <t>reference</t>
   </si>
   <si>
-    <t>A person of whom the role object is a function.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>nc:InjuryType</t>
-  </si>
-  <si>
-    <t>An injury received by a person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>Injury Description</t>
-  </si>
-  <si>
-    <t>A description of an injury.</t>
-  </si>
-  <si>
-    <t>nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:TextType</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:InjurySeverityAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a severity of an injury received by a person involved into a Traffic Accident.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]</t>
-  </si>
-  <si>
-    <t>Severity Code</t>
-  </si>
-  <si>
-    <t>A code for how severe an injury was.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>aamva_d20:AccidentSeverityCodeType</t>
-  </si>
-  <si>
-    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
-  </si>
-  <si>
-    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]/j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>Through Window</t>
-  </si>
-  <si>
-    <t>Whether a person was flung through a window by a crash.</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Injury Privacy Code</t>
-  </si>
-  <si>
-    <t>A code for whether and how the information about an injury was private.</t>
-  </si>
-  <si>
-    <t>Crash Location Coordinates</t>
-  </si>
-  <si>
-    <t>Latitude and longitude of a location.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociationType</t>
-  </si>
-  <si>
-    <t>An association between a person and a charge issued to that person.</t>
-  </si>
-  <si>
     <t>j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
@@ -373,9 +373,6 @@
     <t>A formal allegation that a specific person has committed a specific offense.</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
     <t>j:PersonChargeAssociation/j:Charge</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
   </si>
   <si>
     <t>A committed offense.</t>
-  </si>
-  <si>
-    <t>element</t>
   </si>
   <si>
     <t>Charge Description</t>
@@ -1144,7 +1138,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1174,7 +1167,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1200,7 +1192,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1226,7 +1217,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1252,7 +1242,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1278,7 +1267,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1304,7 +1292,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1330,7 +1317,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1356,7 +1342,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1382,7 +1367,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1433,7 +1417,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1459,7 +1442,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1485,7 +1467,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1511,7 +1492,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1537,7 +1517,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1563,7 +1542,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1589,7 +1567,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1615,7 +1592,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1641,7 +1617,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1667,7 +1642,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1715,7 +1689,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1745,7 +1718,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1771,7 +1743,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1797,7 +1768,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1823,7 +1793,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1849,7 +1818,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1875,7 +1843,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1901,7 +1868,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1927,7 +1893,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1953,7 +1918,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
@@ -1982,7 +1946,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2126,9 +2090,11 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="K4" t="s" s="22">
+        <v>22</v>
+      </c>
       <c r="L4" t="s" s="24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s" s="22">
         <v>19</v>
@@ -2144,22 +2110,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F5" t="s" s="21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" t="s" s="22">
@@ -2168,7 +2134,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" t="s" s="24">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s" s="22">
         <v>19</v>
@@ -2176,7 +2142,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" t="s" s="25">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2186,17 +2152,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" t="s" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s" s="22">
         <v>19</v>
@@ -2204,7 +2170,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" t="s" s="25">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2214,25 +2180,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="28"/>
       <c r="F7" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" t="s" s="25">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2242,10 +2208,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" t="s" s="21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2254,7 +2220,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2262,7 +2228,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2270,31 +2236,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F9" t="s" s="21">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2302,7 +2268,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2310,39 +2276,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="21">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" t="s" s="22">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2350,31 +2316,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F11" t="s" s="21">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s" s="22">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2382,16 +2348,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2400,17 +2366,17 @@
         <v>19</v>
       </c>
       <c r="F12" t="s" s="21">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s" s="22">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s" s="24">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s" s="22">
         <v>19</v>
@@ -2418,7 +2384,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" t="s" s="25">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2428,19 +2394,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="28"/>
       <c r="F13" t="s" s="21">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s" s="22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" t="s" s="24">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s" s="22">
         <v>19</v>
@@ -2448,7 +2414,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" t="s" s="25">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2458,17 +2424,17 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" t="s" s="21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="22">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" t="s" s="24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s" s="22">
         <v>19</v>
@@ -2476,54 +2442,54 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" t="s" s="25">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s" s="22">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" t="s" s="22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" t="s" s="24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" t="s" s="25">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" t="s" s="18">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s" s="19">
         <v>1</v>
@@ -2545,16 +2511,16 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="19">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s" s="18">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s" s="20">
         <v>19</v>
@@ -2573,16 +2539,16 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="16">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s" s="19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s" s="18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s" s="19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s" s="20">
         <v>19</v>
@@ -2601,40 +2567,42 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" t="s" s="18">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E19" t="s" s="20">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="21">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="22">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" t="s" s="22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="K19" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L19" t="s" s="24">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s" s="22">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" t="s" s="25">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -2644,21 +2612,19 @@
       <c r="D20" s="17"/>
       <c r="E20" s="28"/>
       <c r="F20" t="s" s="21">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="22">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" t="s" s="22">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J20" s="23"/>
-      <c r="K20" t="s" s="22">
-        <v>84</v>
-      </c>
+      <c r="K20" s="23"/>
       <c r="L20" t="s" s="24">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M20" t="s" s="22">
         <v>19</v>
@@ -2666,29 +2632,39 @@
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" t="s" s="25">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="28"/>
+      <c r="A21" t="s" s="16">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s" s="19">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s" s="18">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F21" t="s" s="21">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="22">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" t="s" s="22">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" t="s" s="24">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M21" t="s" s="22">
         <v>19</v>
@@ -2696,127 +2672,115 @@
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" t="s" s="25">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="16">
-        <v>77</v>
-      </c>
-      <c r="B22" t="s" s="19">
-        <v>91</v>
-      </c>
-      <c r="C22" t="s" s="18">
-        <v>92</v>
-      </c>
-      <c r="D22" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s" s="21">
-        <v>93</v>
-      </c>
-      <c r="G22" t="s" s="22">
+      <c r="A22" s="26"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="28"/>
+      <c r="F22" t="s" s="32">
         <v>94</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" t="s" s="22">
-        <v>87</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" t="s" s="24">
-        <v>92</v>
-      </c>
-      <c r="M22" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" t="s" s="25">
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" t="s" s="34">
+        <v>85</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" t="s" s="35">
         <v>95</v>
       </c>
+      <c r="M22" t="s" s="34">
+        <v>19</v>
+      </c>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" t="s" s="36">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="28"/>
+      <c r="A23" t="s" s="16">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s" s="19">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s" s="18">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s" s="19">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F23" t="s" s="32">
-        <v>96</v>
-      </c>
-      <c r="G23" s="33"/>
+        <v>100</v>
+      </c>
+      <c r="G23" t="s" s="34">
+        <v>101</v>
+      </c>
       <c r="H23" s="33"/>
-      <c r="I23" t="s" s="34">
-        <v>87</v>
-      </c>
-      <c r="J23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" t="s" s="34">
+        <v>94</v>
+      </c>
       <c r="K23" s="33"/>
       <c r="L23" t="s" s="35">
-        <v>97</v>
-      </c>
-      <c r="M23" t="s" s="34">
-        <v>19</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M23" s="33"/>
       <c r="N23" s="33"/>
       <c r="O23" s="33"/>
       <c r="P23" t="s" s="36">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s" s="19">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s" s="18">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s" s="19">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="F24" t="s" s="32">
-        <v>102</v>
-      </c>
-      <c r="G24" t="s" s="34">
-        <v>103</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" t="s" s="34">
-        <v>96</v>
-      </c>
-      <c r="K24" s="33"/>
-      <c r="L24" t="s" s="35">
-        <v>104</v>
-      </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" t="s" s="36">
-        <v>105</v>
-      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" ht="32.05" customHeight="1">
       <c r="A25" t="s" s="16">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s" s="19">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s" s="18">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s" s="19">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s" s="20">
         <v>19</v>
@@ -2833,9 +2797,9 @@
       <c r="O25" s="23"/>
       <c r="P25" s="31"/>
     </row>
-    <row r="26" ht="32.05" customHeight="1">
+    <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="16">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s" s="19">
         <v>109</v>
@@ -2844,7 +2808,7 @@
         <v>110</v>
       </c>
       <c r="D26" t="s" s="19">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s" s="20">
         <v>19</v>
@@ -2862,32 +2826,32 @@
       <c r="P26" s="31"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="16">
-        <v>59</v>
-      </c>
-      <c r="B27" t="s" s="19">
+      <c r="A27" s="26"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="28"/>
+      <c r="F27" t="s" s="21">
         <v>111</v>
       </c>
-      <c r="C27" t="s" s="18">
+      <c r="G27" t="s" s="22">
         <v>112</v>
       </c>
-      <c r="D27" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="23"/>
+      <c r="L27" t="s" s="24">
+        <v>113</v>
+      </c>
+      <c r="M27" t="s" s="22">
+        <v>114</v>
+      </c>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
-      <c r="P27" s="31"/>
+      <c r="P27" t="s" s="25">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" s="26"/>
@@ -2896,17 +2860,21 @@
       <c r="D28" s="17"/>
       <c r="E28" s="28"/>
       <c r="F28" t="s" s="21">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="G28" t="s" s="22">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
+      <c r="I28" t="s" s="22">
+        <v>111</v>
+      </c>
       <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="K28" t="s" s="22">
+        <v>115</v>
+      </c>
       <c r="L28" t="s" s="24">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s" s="22">
         <v>19</v>
@@ -2914,31 +2882,31 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" t="s" s="25">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="27"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
       <c r="F29" t="s" s="21">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s" s="22">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" t="s" s="22">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" t="s" s="22">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s" s="24">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="M29" t="s" s="22">
         <v>19</v>
@@ -2946,15 +2914,23 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" t="s" s="25">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="26"/>
+      <c r="A30" t="s" s="16">
+        <v>121</v>
+      </c>
       <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="28"/>
+      <c r="C30" t="s" s="18">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s" s="20">
+        <v>114</v>
+      </c>
       <c r="F30" t="s" s="21">
         <v>117</v>
       </c>
@@ -2962,53 +2938,53 @@
         <v>118</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" t="s" s="22">
-        <v>113</v>
-      </c>
+      <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" t="s" s="22">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="L30" t="s" s="24">
         <v>119</v>
       </c>
       <c r="M30" t="s" s="22">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" t="s" s="25">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="16">
-        <v>122</v>
-      </c>
-      <c r="B31" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="B31" t="s" s="19">
+        <v>123</v>
+      </c>
       <c r="C31" t="s" s="18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s" s="19">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s" s="20">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s" s="21">
+        <v>125</v>
+      </c>
+      <c r="G31" t="s" s="22">
+        <v>92</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" t="s" s="22">
         <v>117</v>
       </c>
-      <c r="G31" t="s" s="22">
-        <v>118</v>
-      </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
       <c r="J31" s="23"/>
-      <c r="K31" t="s" s="22">
-        <v>124</v>
-      </c>
+      <c r="K31" s="23"/>
       <c r="L31" t="s" s="24">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s" s="22">
         <v>19</v>
@@ -3016,30 +2992,30 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" t="s" s="25">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="16">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s" s="19">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s" s="18">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s" s="19">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F32" t="s" s="21">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s" s="22">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" t="s" s="22">
@@ -3048,7 +3024,7 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
       <c r="L32" t="s" s="24">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M32" t="s" s="22">
         <v>19</v>
@@ -3056,76 +3032,36 @@
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" t="s" s="25">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="16">
-        <v>122</v>
-      </c>
-      <c r="B33" t="s" s="19">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s" s="18">
-        <v>131</v>
-      </c>
-      <c r="D33" t="s" s="19">
-        <v>108</v>
-      </c>
-      <c r="E33" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s" s="21">
-        <v>132</v>
-      </c>
-      <c r="G33" t="s" s="22">
-        <v>133</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" t="s" s="22">
-        <v>117</v>
-      </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" t="s" s="24">
+      <c r="A33" t="s" s="37">
+        <v>121</v>
+      </c>
+      <c r="B33" t="s" s="38">
         <v>134</v>
       </c>
-      <c r="M33" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" t="s" s="25">
+      <c r="C33" t="s" s="39">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="37">
-        <v>122</v>
-      </c>
-      <c r="B34" t="s" s="38">
-        <v>136</v>
-      </c>
-      <c r="C34" t="s" s="39">
-        <v>137</v>
-      </c>
-      <c r="D34" t="s" s="38">
-        <v>108</v>
-      </c>
-      <c r="E34" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="44"/>
+      <c r="D33" t="s" s="38">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
